--- a/pcb-references/power/power-supply-decision-matrix.xlsx
+++ b/pcb-references/power/power-supply-decision-matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a8a7dff0b441a3a2/Documents/GitHub/flora-hardware/pcb-references/power/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{06AF4FE9-3BB3-4D85-AC23-226BE7825F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EB44363-7734-4CDA-8AF0-3FBAF9521ECB}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="8_{06AF4FE9-3BB3-4D85-AC23-226BE7825F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{375653A4-07DC-4C96-AF53-DF388522F82A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C322A129-42F8-4007-818D-D3A97F86D464}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>FLoRa Communications</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>TPS631000 1.5-A Output Current, High Power Density Buck-Boost Converter</t>
+  </si>
+  <si>
+    <t>External Parts Required</t>
+  </si>
+  <si>
+    <t>Cost</t>
   </si>
 </sst>
 </file>
@@ -106,7 +112,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -202,6 +208,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -213,12 +225,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB19358F-E7DF-40AC-8319-5BA90715C75B}">
-  <dimension ref="C2:I60"/>
+  <dimension ref="C2:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -584,7 +590,7 @@
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C4" s="9">
+      <c r="C4" s="5">
         <v>45553</v>
       </c>
     </row>
@@ -600,27 +606,27 @@
       <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -628,8 +634,8 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C9" s="6"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="2">
         <f>$D8*E8</f>
         <v>0</v>
@@ -652,10 +658,10 @@
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -663,8 +669,8 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C11" s="6"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="2">
         <f>$D10*E10</f>
         <v>0</v>
@@ -687,10 +693,10 @@
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -698,8 +704,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C13" s="6"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="2">
         <f>$D12*E12</f>
         <v>0</v>
@@ -722,10 +728,10 @@
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -733,8 +739,8 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C15" s="6"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="2">
         <f>$D14*E14</f>
         <v>0</v>
@@ -757,10 +763,10 @@
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="9"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -768,165 +774,163 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C17" s="6"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="2">
         <f>$D16*E16</f>
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" ref="F17" si="13">$D16*F16</f>
+        <f t="shared" ref="F17:F21" si="13">$D16*F16</f>
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" ref="G17" si="14">$D16*G16</f>
+        <f t="shared" ref="G17:G21" si="14">$D16*G16</f>
         <v>0</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" ref="H17" si="15">$D16*H16</f>
+        <f t="shared" ref="H17:H21" si="15">$D16*H16</f>
         <v>0</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" ref="I17" si="16">$D16*I16</f>
+        <f t="shared" ref="I17:I21" si="16">$D16*I16</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C19" s="8"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="2">
+        <f>$D18*E18</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C21" s="8"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="2">
+        <f>$D20*E20</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="D22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="3">
-        <f>SUM(E9,E11,E13,E15,E17)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <f>SUM(F9,F11,F13,F15,F17)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" ref="G18:I18" si="17">SUM(G9,G11,G13,G15,G17)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C20" t="s">
+      <c r="E22" s="3">
+        <f>SUM(E9,E11,E13,E15,E21,E19,E17)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <f>SUM(F9,F11,F13,F15,F21,F19,F17)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" ref="G22" si="17">SUM(G9,G11,G13,G15,G21,G19,G17)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" ref="H22" si="18">SUM(H9,H11,H13,H15,H21,H19,H17)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" ref="I22" si="19">SUM(I9,I11,I13,I15,I21,I19,I17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="3:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="C21" s="1" t="s">
+    <row r="25" spans="3:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="C25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="10" t="str">
+      <c r="E25" s="6" t="str">
         <f>E7</f>
         <v>TPSM863253 -3V to 17V input voltage, 3.3V, 3A output synchronous buck module in QFN package</v>
       </c>
-      <c r="F21" s="10" t="str">
-        <f t="shared" ref="F21:H21" si="18">F7</f>
+      <c r="F25" s="6" t="str">
+        <f>F7</f>
         <v>TPS631000 1.5-A Output Current, High Power Density Buck-Boost Converter</v>
       </c>
-      <c r="G21" s="10" t="str">
-        <f t="shared" si="18"/>
+      <c r="G25" s="6" t="str">
+        <f>G7</f>
         <v>R-78K-2.0(L) series - 2Amp / SIP3 Single Output</v>
       </c>
-      <c r="H21" s="10" t="str">
-        <f t="shared" si="18"/>
+      <c r="H25" s="6" t="str">
+        <f>H7</f>
         <v>OPTION D</v>
       </c>
-      <c r="I21" s="10" t="str">
+      <c r="I25" s="6" t="str">
         <f>I7</f>
         <v>OPTION E</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C22" s="5" t="str">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C26" s="7" t="str">
         <f>C8</f>
         <v>Efficiency</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C23" s="6"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="2">
-        <f>$D22*E22</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" ref="F23" si="19">$D22*F22</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" ref="G23" si="20">$D22*G22</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" ref="H23" si="21">$D22*H22</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" ref="I23" si="22">$D22*I22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C24" s="5" t="str">
-        <f t="shared" ref="C24:D24" si="23">C10</f>
-        <v>Solderability</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C25" s="6"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="2">
-        <f>$D24*E24</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" ref="F25" si="24">$D24*F24</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" ref="G25" si="25">$D24*G24</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" ref="H25" si="26">$D24*H24</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <f t="shared" ref="I25" si="27">$D24*I24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C26" s="5" t="str">
-        <f t="shared" ref="C26:D26" si="28">C12</f>
-        <v>Input Voltage Range</v>
-      </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -934,35 +938,35 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C27" s="6"/>
-      <c r="D27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="2">
         <f>$D26*E26</f>
         <v>0</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" ref="F27" si="29">$D26*F26</f>
+        <f t="shared" ref="F27" si="20">$D26*F26</f>
         <v>0</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" ref="G27" si="30">$D26*G26</f>
+        <f t="shared" ref="G27" si="21">$D26*G26</f>
         <v>0</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" ref="H27" si="31">$D26*H26</f>
+        <f t="shared" ref="H27" si="22">$D26*H26</f>
         <v>0</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" ref="I27" si="32">$D26*I26</f>
+        <f t="shared" ref="I27" si="23">$D26*I26</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C28" s="5" t="str">
-        <f t="shared" ref="C28:D28" si="33">C14</f>
-        <v>Output Current</v>
-      </c>
-      <c r="D28" s="7"/>
+      <c r="C28" s="7" t="str">
+        <f>C10</f>
+        <v>Solderability</v>
+      </c>
+      <c r="D28" s="9"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -970,35 +974,35 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C29" s="6"/>
-      <c r="D29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="2">
         <f>$D28*E28</f>
         <v>0</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" ref="F29" si="34">$D28*F28</f>
+        <f t="shared" ref="F29" si="24">$D28*F28</f>
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" ref="G29" si="35">$D28*G28</f>
+        <f t="shared" ref="G29" si="25">$D28*G28</f>
         <v>0</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" ref="H29" si="36">$D28*H28</f>
+        <f t="shared" ref="H29" si="26">$D28*H28</f>
         <v>0</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" ref="I29" si="37">$D28*I28</f>
+        <f t="shared" ref="I29" si="27">$D28*I28</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C30" s="5" t="str">
-        <f t="shared" ref="C30:D30" si="38">C16</f>
-        <v>Ripple Voltage/Noise</v>
-      </c>
-      <c r="D30" s="7"/>
+      <c r="C30" s="7" t="str">
+        <f>C12</f>
+        <v>Input Voltage Range</v>
+      </c>
+      <c r="D30" s="9"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1006,93 +1010,107 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C31" s="6"/>
-      <c r="D31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="2">
         <f>$D30*E30</f>
         <v>0</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" ref="F31" si="39">$D30*F30</f>
+        <f t="shared" ref="F31" si="28">$D30*F30</f>
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" ref="G31" si="40">$D30*G30</f>
+        <f t="shared" ref="G31" si="29">$D30*G30</f>
         <v>0</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" ref="H31" si="41">$D30*H30</f>
+        <f t="shared" ref="H31" si="30">$D30*H30</f>
         <v>0</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" ref="I31" si="42">$D30*I30</f>
+        <f t="shared" ref="I31" si="31">$D30*I30</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="D32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <f>SUM(E23,E25,E27,E29,E31)</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <f>SUM(F23,F25,F27,F29,F31)</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <f t="shared" ref="G32" si="43">SUM(G23,G25,G27,G29,G31)</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <f t="shared" ref="H32" si="44">SUM(H23,H25,H27,H29,H31)</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <f t="shared" ref="I32" si="45">SUM(I23,I25,I27,I29,I31)</f>
+      <c r="C32" s="7" t="str">
+        <f>C14</f>
+        <v>Output Current</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C33" s="8"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="2">
+        <f>$D32*E32</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" ref="F33" si="32">$D32*F32</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" ref="G33" si="33">$D32*G32</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" ref="H33" si="34">$D32*H32</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" ref="I33" si="35">$D32*I32</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="C35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="10" t="str">
-        <f>E21</f>
-        <v>TPSM863253 -3V to 17V input voltage, 3.3V, 3A output synchronous buck module in QFN package</v>
-      </c>
-      <c r="F35" s="10" t="str">
-        <f t="shared" ref="F35:H35" si="46">F21</f>
-        <v>TPS631000 1.5-A Output Current, High Power Density Buck-Boost Converter</v>
-      </c>
-      <c r="G35" s="10" t="str">
-        <f t="shared" si="46"/>
-        <v>R-78K-2.0(L) series - 2Amp / SIP3 Single Output</v>
-      </c>
-      <c r="H35" s="10" t="str">
-        <f t="shared" si="46"/>
-        <v>OPTION D</v>
-      </c>
-      <c r="I35" s="10" t="str">
-        <f>I21</f>
-        <v>OPTION E</v>
+      <c r="C34" s="7" t="str">
+        <f>C16</f>
+        <v>Cost</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C35" s="8"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="2">
+        <f>$D34*E34</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" ref="F35:I37" si="36">$D34*F34</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="36"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C36" s="5" t="str">
-        <f>C8</f>
-        <v>Efficiency</v>
-      </c>
-      <c r="D36" s="7"/>
+      <c r="C36" s="7" t="str">
+        <f>C18</f>
+        <v>External Parts Required</v>
+      </c>
+      <c r="D36" s="9"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1100,35 +1118,35 @@
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C37" s="6"/>
-      <c r="D37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="2">
         <f>$D36*E36</f>
         <v>0</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" ref="F37" si="47">$D36*F36</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" ref="G37" si="48">$D36*G36</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" ref="H37" si="49">$D36*H36</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" ref="I37" si="50">$D36*I36</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C38" s="5" t="str">
-        <f t="shared" ref="C38" si="51">C10</f>
-        <v>Solderability</v>
-      </c>
-      <c r="D38" s="7"/>
+      <c r="C38" s="7" t="str">
+        <f>C20</f>
+        <v>Ripple Voltage/Noise</v>
+      </c>
+      <c r="D38" s="9"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -1136,107 +1154,93 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C39" s="6"/>
-      <c r="D39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="10"/>
       <c r="E39" s="2">
         <f>$D38*E38</f>
         <v>0</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" ref="F39" si="52">$D38*F38</f>
+        <f>$D38*F38</f>
         <v>0</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" ref="G39" si="53">$D38*G38</f>
+        <f>$D38*G38</f>
         <v>0</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" ref="H39" si="54">$D38*H38</f>
+        <f>$D38*H38</f>
         <v>0</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" ref="I39" si="55">$D38*I38</f>
+        <f>$D38*I38</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C40" s="5" t="str">
-        <f t="shared" ref="C40" si="56">C12</f>
-        <v>Input Voltage Range</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C41" s="6"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="2">
-        <f>$D40*E40</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="2">
-        <f t="shared" ref="F41" si="57">$D40*F40</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="2">
-        <f t="shared" ref="G41" si="58">$D40*G40</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="2">
-        <f t="shared" ref="H41" si="59">$D40*H40</f>
-        <v>0</v>
-      </c>
-      <c r="I41" s="2">
-        <f t="shared" ref="I41" si="60">$D40*I40</f>
+      <c r="D40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="3">
+        <f>SUM(E27,E29,E31,E33,E39,E37,E35)</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" ref="F40" si="37">SUM(F27,F29,F31,F33,F39,F37,F35)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" ref="G40" si="38">SUM(G27,G29,G31,G33,G39,G37,G35)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" ref="H40" si="39">SUM(H27,H29,H31,H33,H39,H37,H35)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" ref="I40" si="40">SUM(I27,I29,I31,I33,I39,I37,I35)</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C42" s="5" t="str">
-        <f t="shared" ref="C42" si="61">C14</f>
-        <v>Output Current</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C43" s="6"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="2">
-        <f>$D42*E42</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="2">
-        <f t="shared" ref="F43" si="62">$D42*F42</f>
-        <v>0</v>
-      </c>
-      <c r="G43" s="2">
-        <f t="shared" ref="G43" si="63">$D42*G42</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="2">
-        <f t="shared" ref="H43" si="64">$D42*H42</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="2">
-        <f t="shared" ref="I43" si="65">$D42*I42</f>
-        <v>0</v>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="C43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="6" t="str">
+        <f>E25</f>
+        <v>TPSM863253 -3V to 17V input voltage, 3.3V, 3A output synchronous buck module in QFN package</v>
+      </c>
+      <c r="F43" s="6" t="str">
+        <f>F25</f>
+        <v>TPS631000 1.5-A Output Current, High Power Density Buck-Boost Converter</v>
+      </c>
+      <c r="G43" s="6" t="str">
+        <f>G25</f>
+        <v>R-78K-2.0(L) series - 2Amp / SIP3 Single Output</v>
+      </c>
+      <c r="H43" s="6" t="str">
+        <f>H25</f>
+        <v>OPTION D</v>
+      </c>
+      <c r="I43" s="6" t="str">
+        <f>I25</f>
+        <v>OPTION E</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C44" s="5" t="str">
-        <f t="shared" ref="C44" si="66">C16</f>
-        <v>Ripple Voltage/Noise</v>
-      </c>
-      <c r="D44" s="7"/>
+      <c r="C44" s="7" t="str">
+        <f>C8</f>
+        <v>Efficiency</v>
+      </c>
+      <c r="D44" s="9"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -1244,426 +1248,806 @@
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C45" s="6"/>
-      <c r="D45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="10"/>
       <c r="E45" s="2">
         <f>$D44*E44</f>
         <v>0</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" ref="F45" si="67">$D44*F44</f>
+        <f t="shared" ref="F45" si="41">$D44*F44</f>
         <v>0</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" ref="G45" si="68">$D44*G44</f>
+        <f t="shared" ref="G45" si="42">$D44*G44</f>
         <v>0</v>
       </c>
       <c r="H45" s="2">
-        <f t="shared" ref="H45" si="69">$D44*H44</f>
+        <f t="shared" ref="H45" si="43">$D44*H44</f>
         <v>0</v>
       </c>
       <c r="I45" s="2">
-        <f t="shared" ref="I45" si="70">$D44*I44</f>
+        <f t="shared" ref="I45" si="44">$D44*I44</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="D46" s="1" t="s">
+      <c r="C46" s="7" t="str">
+        <f>C10</f>
+        <v>Solderability</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C47" s="8"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="2">
+        <f>$D46*E46</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" ref="F47" si="45">$D46*F46</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" ref="G47" si="46">$D46*G46</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" ref="H47" si="47">$D46*H46</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" ref="I47" si="48">$D46*I46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C48" s="7" t="str">
+        <f>C12</f>
+        <v>Input Voltage Range</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C49" s="8"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="2">
+        <f>$D48*E48</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" ref="F49" si="49">$D48*F48</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" ref="G49" si="50">$D48*G48</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" ref="H49" si="51">$D48*H48</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" ref="I49" si="52">$D48*I48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C50" s="7" t="str">
+        <f>C14</f>
+        <v>Output Current</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C51" s="8"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="2">
+        <f>$D50*E50</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" ref="F51" si="53">$D50*F50</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" ref="G51" si="54">$D50*G50</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" ref="H51" si="55">$D50*H50</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" ref="I51" si="56">$D50*I50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C52" s="7" t="str">
+        <f>C34</f>
+        <v>Cost</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C53" s="8"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="2">
+        <f>$D52*E52</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" ref="F53:I55" si="57">$D52*F52</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C54" s="7" t="str">
+        <f>C36</f>
+        <v>External Parts Required</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C55" s="8"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="2">
+        <f>$D54*E54</f>
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C56" s="7" t="str">
+        <f>C20</f>
+        <v>Ripple Voltage/Noise</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C57" s="8"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="2">
+        <f>$D56*E56</f>
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" ref="F57" si="58">$D56*F56</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" ref="G57" si="59">$D56*G56</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" ref="H57" si="60">$D56*H56</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <f t="shared" ref="I57" si="61">$D56*I56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="D58" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="3">
-        <f>SUM(E37,E39,E41,E43,E45)</f>
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <f>SUM(F37,F39,F41,F43,F45)</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <f t="shared" ref="G46" si="71">SUM(G37,G39,G41,G43,G45)</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <f t="shared" ref="H46" si="72">SUM(H37,H39,H41,H43,H45)</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <f t="shared" ref="I46" si="73">SUM(I37,I39,I41,I43,I45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C48" t="s">
+      <c r="E58" s="3">
+        <f>SUM(E45,E47,E49,E51,E57,E55,E53)</f>
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" ref="F58:I58" si="62">SUM(F45,F47,F49,F51,F57,F55,F53)</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C60" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="3:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="C49" s="1" t="s">
+    <row r="61" spans="3:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="C61" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="10" t="str">
-        <f>E35</f>
+      <c r="E61" s="6" t="str">
+        <f>E43</f>
         <v>TPSM863253 -3V to 17V input voltage, 3.3V, 3A output synchronous buck module in QFN package</v>
       </c>
-      <c r="F49" s="10" t="str">
-        <f t="shared" ref="F49:H49" si="74">F35</f>
+      <c r="F61" s="6" t="str">
+        <f t="shared" ref="F61:H61" si="63">F43</f>
         <v>TPS631000 1.5-A Output Current, High Power Density Buck-Boost Converter</v>
       </c>
-      <c r="G49" s="10" t="str">
+      <c r="G61" s="6" t="str">
+        <f t="shared" si="63"/>
+        <v>R-78K-2.0(L) series - 2Amp / SIP3 Single Output</v>
+      </c>
+      <c r="H61" s="6" t="str">
+        <f t="shared" si="63"/>
+        <v>OPTION D</v>
+      </c>
+      <c r="I61" s="6" t="str">
+        <f>I43</f>
+        <v>OPTION E</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C62" s="7" t="str">
+        <f>C44</f>
+        <v>Efficiency</v>
+      </c>
+      <c r="D62" s="9" t="e">
+        <f>AVERAGE(D8,D26,D44)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E62" s="1">
+        <f>SUM(E8,E26,E44)</f>
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <f>SUM(F8,F26,F44)</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <f>SUM(G8,G26,G44)</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <f>SUM(H8,H26,H44)</f>
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <f>SUM(I8,I26,I44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C63" s="8"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="2">
+        <f>SUM(E9,E27,E45)</f>
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
+        <f>SUM(F9,F27,F45)</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="2">
+        <f>SUM(G9,G27,G45)</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="2">
+        <f>SUM(H9,H27,H45)</f>
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
+        <f>SUM(I9,I27,I45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C64" s="7" t="str">
+        <f t="shared" ref="C64" si="64">C46</f>
+        <v>Solderability</v>
+      </c>
+      <c r="D64" s="9" t="e">
+        <f t="shared" ref="D64" si="65">AVERAGE(D10,D28,D46)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E64" s="1">
+        <f>SUM(E10,E28,E46)</f>
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <f>SUM(F10,F28,F46)</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <f>SUM(G10,G28,G46)</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <f>SUM(H10,H28,H46)</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <f>SUM(I10,I28,I46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C65" s="8"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="2">
+        <f>SUM(E11,E29,E47)</f>
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
+        <f>SUM(F11,F29,F47)</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="2">
+        <f>SUM(G11,G29,G47)</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="2">
+        <f>SUM(H11,H29,H47)</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="2">
+        <f>SUM(I11,I29,I47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C66" s="7" t="str">
+        <f t="shared" ref="C66" si="66">C48</f>
+        <v>Input Voltage Range</v>
+      </c>
+      <c r="D66" s="9" t="e">
+        <f t="shared" ref="D66" si="67">AVERAGE(D12,D30,D48)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E66" s="1">
+        <f>SUM(E12,E30,E48)</f>
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <f>SUM(F12,F30,F48)</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <f>SUM(G12,G30,G48)</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <f>SUM(H12,H30,H48)</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <f>SUM(I12,I30,I48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C67" s="8"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="2">
+        <f>SUM(E13,E31,E49)</f>
+        <v>0</v>
+      </c>
+      <c r="F67" s="2">
+        <f>SUM(F13,F31,F49)</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="2">
+        <f>SUM(G13,G31,G49)</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="2">
+        <f>SUM(H13,H31,H49)</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="2">
+        <f>SUM(I13,I31,I49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C68" s="7" t="str">
+        <f t="shared" ref="C68" si="68">C50</f>
+        <v>Output Current</v>
+      </c>
+      <c r="D68" s="9" t="e">
+        <f t="shared" ref="D68" si="69">AVERAGE(D14,D32,D50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E68" s="1">
+        <f>SUM(E14,E32,E50)</f>
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <f>SUM(F14,F32,F50)</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <f>SUM(G14,G32,G50)</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <f>SUM(H14,H32,H50)</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <f>SUM(I14,I32,I50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C69" s="8"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="2">
+        <f>SUM(E15,E33,E51)</f>
+        <v>0</v>
+      </c>
+      <c r="F69" s="2">
+        <f>SUM(F15,F33,F51)</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="2">
+        <f>SUM(G15,G33,G51)</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="2">
+        <f>SUM(H15,H33,H51)</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="2">
+        <f>SUM(I15,I33,I51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C70" s="7" t="str">
+        <f>C52</f>
+        <v>Cost</v>
+      </c>
+      <c r="D70" s="9" t="e">
+        <f t="shared" ref="D70" si="70">AVERAGE(D16,D34,D52)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E70" s="1">
+        <f>SUM(E16,E34,E52)</f>
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" ref="F70:I70" si="71">SUM(F16,F34,F52)</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C71" s="8"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="2">
+        <f>SUM(E17,E35,E53)</f>
+        <v>0</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" ref="F71:H71" si="72">SUM(F17,F35,F53)</f>
+        <v>0</v>
+      </c>
+      <c r="G71" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="2">
+        <f>SUM(I17,I35,I53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C72" s="7" t="str">
+        <f>C54</f>
+        <v>External Parts Required</v>
+      </c>
+      <c r="D72" s="9" t="e">
+        <f t="shared" ref="D72" si="73">AVERAGE(D18,D36,D54)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E72" s="1">
+        <f>SUM(E18,E36,E54)</f>
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" ref="F72:I72" si="74">SUM(F18,F36,F54)</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
         <f t="shared" si="74"/>
-        <v>R-78K-2.0(L) series - 2Amp / SIP3 Single Output</v>
-      </c>
-      <c r="H49" s="10" t="str">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
         <f t="shared" si="74"/>
-        <v>OPTION D</v>
-      </c>
-      <c r="I49" s="10" t="str">
-        <f>I35</f>
-        <v>OPTION E</v>
-      </c>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C50" s="5" t="str">
-        <f>C36</f>
-        <v>Efficiency</v>
-      </c>
-      <c r="D50" s="7">
-        <f>D36</f>
-        <v>0</v>
-      </c>
-      <c r="E50" s="1">
-        <f>SUM(E8,E22,E36)</f>
-        <v>0</v>
-      </c>
-      <c r="F50" s="1">
-        <f t="shared" ref="F50:I50" si="75">SUM(F8,F22,F36)</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C73" s="8"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="2">
+        <f>SUM(E19,E37,E55)</f>
+        <v>0</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" ref="F73:I73" si="75">SUM(F19,F37,F55)</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="2">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H73" s="2">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I73" s="2">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C51" s="6"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="2">
-        <f t="shared" ref="E51:I51" si="76">SUM(E9,E23,E37)</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="2">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="2">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="2">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="2">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C52" s="5" t="str">
-        <f t="shared" ref="C52" si="77">C38</f>
-        <v>Solderability</v>
-      </c>
-      <c r="D52" s="7">
-        <f t="shared" ref="D52" si="78">D38</f>
-        <v>0</v>
-      </c>
-      <c r="E52" s="1">
-        <f t="shared" ref="E52:I52" si="79">SUM(E10,E24,E38)</f>
-        <v>0</v>
-      </c>
-      <c r="F52" s="1">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="1">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="1">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="1">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C53" s="6"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="2">
-        <f t="shared" ref="E53:I53" si="80">SUM(E11,E25,E39)</f>
-        <v>0</v>
-      </c>
-      <c r="F53" s="2">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="2">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="2">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="2">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C54" s="5" t="str">
-        <f t="shared" ref="C54" si="81">C40</f>
-        <v>Input Voltage Range</v>
-      </c>
-      <c r="D54" s="7">
-        <f t="shared" ref="D54" si="82">D40</f>
-        <v>0</v>
-      </c>
-      <c r="E54" s="1">
-        <f t="shared" ref="E54:I54" si="83">SUM(E12,E26,E40)</f>
-        <v>0</v>
-      </c>
-      <c r="F54" s="1">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="1">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="1">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="1">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C55" s="6"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="2">
-        <f t="shared" ref="E55:I55" si="84">SUM(E13,E27,E41)</f>
-        <v>0</v>
-      </c>
-      <c r="F55" s="2">
-        <f>SUM(F13,F27,F41)</f>
-        <v>0</v>
-      </c>
-      <c r="G55" s="2">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="H55" s="2">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="2">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C56" s="5" t="str">
-        <f t="shared" ref="C56" si="85">C42</f>
-        <v>Output Current</v>
-      </c>
-      <c r="D56" s="7">
-        <f t="shared" ref="D56" si="86">D42</f>
-        <v>0</v>
-      </c>
-      <c r="E56" s="1">
-        <f t="shared" ref="E56:I56" si="87">SUM(E14,E28,E42)</f>
-        <v>0</v>
-      </c>
-      <c r="F56" s="1">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="1">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="1">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="1">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C57" s="6"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="2">
-        <f t="shared" ref="E57:I57" si="88">SUM(E15,E29,E43)</f>
-        <v>0</v>
-      </c>
-      <c r="F57" s="2">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="2">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="2">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="2">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C58" s="5" t="str">
-        <f>C44</f>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C74" s="7" t="str">
+        <f>C56</f>
         <v>Ripple Voltage/Noise</v>
       </c>
-      <c r="D58" s="7">
-        <f t="shared" ref="D58" si="89">D44</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="1">
-        <f t="shared" ref="E58:I58" si="90">SUM(E16,E30,E44)</f>
-        <v>0</v>
-      </c>
-      <c r="F58" s="1">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="1">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="1">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="1">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C59" s="6"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="2">
-        <f t="shared" ref="E59:I59" si="91">SUM(E17,E31,E45)</f>
-        <v>0</v>
-      </c>
-      <c r="F59" s="2">
-        <f>SUM(F17,F31,F45)</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="2">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="2">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="I59" s="2">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="D60" s="4" t="s">
+      <c r="D74" s="9" t="e">
+        <f t="shared" ref="D74" si="76">AVERAGE(D20,D38,D56)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E74" s="1">
+        <f>SUM(E20,E38,E56)</f>
+        <v>0</v>
+      </c>
+      <c r="F74" s="1">
+        <f>SUM(F20,F38,F56)</f>
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
+        <f>SUM(G20,G38,G56)</f>
+        <v>0</v>
+      </c>
+      <c r="H74" s="1">
+        <f>SUM(H20,H38,H56)</f>
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <f>SUM(I20,I38,I56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C75" s="8"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="2">
+        <f>SUM(E21,E39,E57)</f>
+        <v>0</v>
+      </c>
+      <c r="F75" s="2">
+        <f>SUM(F21,F39,F57)</f>
+        <v>0</v>
+      </c>
+      <c r="G75" s="2">
+        <f>SUM(G21,G39,G57)</f>
+        <v>0</v>
+      </c>
+      <c r="H75" s="2">
+        <f>SUM(H21,H39,H57)</f>
+        <v>0</v>
+      </c>
+      <c r="I75" s="2">
+        <f>SUM(I21,I39,I57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="D76" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="4">
-        <f>SUM(E51,E53,E55,E57,E59)</f>
-        <v>0</v>
-      </c>
-      <c r="F60" s="4">
-        <f>SUM(F51,F53,F55,F57,F59)</f>
-        <v>0</v>
-      </c>
-      <c r="G60" s="4">
-        <f t="shared" ref="G60" si="92">SUM(G51,G53,G55,G57,G59)</f>
-        <v>0</v>
-      </c>
-      <c r="H60" s="4">
-        <f t="shared" ref="H60" si="93">SUM(H51,H53,H55,H57,H59)</f>
-        <v>0</v>
-      </c>
-      <c r="I60" s="4">
-        <f t="shared" ref="I60" si="94">SUM(I51,I53,I55,I57,I59)</f>
+      <c r="E76" s="4">
+        <f>SUM(E63,E65,E67,E69,E75,E73,E71)</f>
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
+        <f t="shared" ref="F76:I76" si="77">SUM(F63,F65,F67,F69,F75,F73,F71)</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="4">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="4">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="4">
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
+  <mergeCells count="56">
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D20:D21"/>
   </mergeCells>
-  <conditionalFormatting sqref="E50:I59">
+  <conditionalFormatting sqref="E62:I69 E74:I75">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF7030A0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71:I71">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF7030A0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73:I73">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF7030A0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70:I70">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF7030A0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72:I72">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/pcb-references/power/power-supply-decision-matrix.xlsx
+++ b/pcb-references/power/power-supply-decision-matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a8a7dff0b441a3a2/Documents/GitHub/flora-hardware/pcb-references/power/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="8_{06AF4FE9-3BB3-4D85-AC23-226BE7825F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{375653A4-07DC-4C96-AF53-DF388522F82A}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="8_{06AF4FE9-3BB3-4D85-AC23-226BE7825F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AC6BD08-E925-4CB5-AB33-A8DFE529E4ED}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C322A129-42F8-4007-818D-D3A97F86D464}"/>
+    <workbookView xWindow="-28920" yWindow="15990" windowWidth="29040" windowHeight="15720" xr2:uid="{C322A129-42F8-4007-818D-D3A97F86D464}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>Weight</t>
   </si>
   <si>
-    <t>OPTION D</t>
-  </si>
-  <si>
     <t>OPTION E</t>
   </si>
   <si>
@@ -80,12 +77,6 @@
     <t>Ripple Voltage/Noise</t>
   </si>
   <si>
-    <t>Rank weight 1-5, with 5 being the best</t>
-  </si>
-  <si>
-    <t>Score 1-5, with 5 being the best</t>
-  </si>
-  <si>
     <t>Input Voltage Range</t>
   </si>
   <si>
@@ -105,6 +96,15 @@
   </si>
   <si>
     <t>Cost</t>
+  </si>
+  <si>
+    <t>TPSM863252 -3V to 17V input voltage, 3.3V, 3A output synchronous buck module in QFN package</t>
+  </si>
+  <si>
+    <t>Score options 1-5 in each category, with 5 being the best</t>
+  </si>
+  <si>
+    <t>Rank weight 1-5, with 5 being the most important</t>
   </si>
 </sst>
 </file>
@@ -114,7 +114,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,8 +122,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,8 +158,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAEAEAE"/>
+        <bgColor rgb="FFAEAEAE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -198,11 +214,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -226,6 +257,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB19358F-E7DF-40AC-8319-5BA90715C75B}">
   <dimension ref="C2:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -575,10 +609,10 @@
   <sheetData>
     <row r="2" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.35">
@@ -586,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.35">
@@ -596,7 +630,7 @@
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="3:9" ht="58" x14ac:dyDescent="0.35">
@@ -607,30 +641,40 @@
         <v>2</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="D8" s="9">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4</v>
+      </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.35">
@@ -638,19 +682,19 @@
       <c r="D9" s="10"/>
       <c r="E9" s="2">
         <f>$D8*E8</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" ref="F9:I9" si="0">$D8*F8</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="0"/>
@@ -659,13 +703,23 @@
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.35">
@@ -673,19 +727,19 @@
       <c r="D11" s="10"/>
       <c r="E11" s="2">
         <f>$D10*E10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ref="F11" si="1">$D10*F10</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" ref="G11" si="2">$D10*G10</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" ref="H11" si="3">$D10*H10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" ref="I11" si="4">$D10*I10</f>
@@ -694,13 +748,23 @@
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D12" s="9">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4</v>
+      </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.35">
@@ -708,19 +772,19 @@
       <c r="D13" s="10"/>
       <c r="E13" s="2">
         <f>$D12*E12</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" ref="F13" si="5">$D12*F12</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" ref="G13" si="6">$D12*G12</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" ref="H13" si="7">$D12*H12</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" ref="I13" si="8">$D12*I12</f>
@@ -729,13 +793,23 @@
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="D14" s="9">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.35">
@@ -743,19 +817,19 @@
       <c r="D15" s="10"/>
       <c r="E15" s="2">
         <f>$D14*E14</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" ref="F15" si="9">$D14*F14</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" ref="G15" si="10">$D14*G14</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" ref="H15" si="11">$D14*H14</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" ref="I15" si="12">$D14*I14</f>
@@ -764,13 +838,23 @@
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3</v>
+      </c>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.35">
@@ -778,19 +862,19 @@
       <c r="D17" s="10"/>
       <c r="E17" s="2">
         <f>$D16*E16</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" ref="F17:F21" si="13">$D16*F16</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" ref="G17:G21" si="14">$D16*G16</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" ref="H17:H21" si="15">$D16*H16</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" ref="I17:I21" si="16">$D16*I16</f>
@@ -799,13 +883,23 @@
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.35">
@@ -813,19 +907,19 @@
       <c r="D19" s="10"/>
       <c r="E19" s="2">
         <f>$D18*E18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" si="16"/>
@@ -834,13 +928,23 @@
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="D20" s="9">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3</v>
+      </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.35">
@@ -848,19 +952,19 @@
       <c r="D21" s="10"/>
       <c r="E21" s="2">
         <f>$D20*E20</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="16"/>
@@ -869,23 +973,23 @@
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.35">
       <c r="D22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" s="3">
         <f>SUM(E9,E11,E13,E15,E21,E19,E17)</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F22" s="3">
         <f>SUM(F9,F11,F13,F15,F21,F19,F17)</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" ref="G22" si="17">SUM(G9,G11,G13,G15,G21,G19,G17)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" ref="H22" si="18">SUM(H9,H11,H13,H15,H21,H19,H17)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" ref="I22" si="19">SUM(I9,I11,I13,I15,I21,I19,I17)</f>
@@ -894,7 +998,7 @@
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="3:9" ht="58" x14ac:dyDescent="0.35">
@@ -918,7 +1022,7 @@
       </c>
       <c r="H25" s="6" t="str">
         <f>H7</f>
-        <v>OPTION D</v>
+        <v>TPSM863252 -3V to 17V input voltage, 3.3V, 3A output synchronous buck module in QFN package</v>
       </c>
       <c r="I25" s="6" t="str">
         <f>I7</f>
@@ -931,33 +1035,29 @@
         <v>Efficiency</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C27" s="8"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="2">
-        <f>$D26*E26</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <f t="shared" ref="F27" si="20">$D26*F26</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <f t="shared" ref="G27" si="21">$D26*G26</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" ref="H27" si="22">$D26*H26</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="2">
-        <f t="shared" ref="I27" si="23">$D26*I26</f>
+      <c r="E27" s="12">
+        <v>3</v>
+      </c>
+      <c r="F27" s="12">
+        <v>3</v>
+      </c>
+      <c r="G27" s="12">
+        <v>4</v>
+      </c>
+      <c r="H27" s="12">
+        <v>4</v>
+      </c>
+      <c r="I27" s="13">
+        <f>$D26*I26</f>
         <v>0</v>
       </c>
     </row>
@@ -967,33 +1067,29 @@
         <v>Solderability</v>
       </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C29" s="8"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="2">
-        <f>$D28*E28</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
-        <f t="shared" ref="F29" si="24">$D28*F28</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="2">
-        <f t="shared" ref="G29" si="25">$D28*G28</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" ref="H29" si="26">$D28*H28</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <f t="shared" ref="I29" si="27">$D28*I28</f>
+      <c r="E29" s="12">
+        <v>3</v>
+      </c>
+      <c r="F29" s="12">
+        <v>4</v>
+      </c>
+      <c r="G29" s="12">
+        <v>5</v>
+      </c>
+      <c r="H29" s="12">
+        <v>3</v>
+      </c>
+      <c r="I29" s="13">
+        <f>$D28*I28</f>
         <v>0</v>
       </c>
     </row>
@@ -1003,33 +1099,29 @@
         <v>Input Voltage Range</v>
       </c>
       <c r="D30" s="9"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C31" s="8"/>
       <c r="D31" s="10"/>
-      <c r="E31" s="2">
-        <f>$D30*E30</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="2">
-        <f t="shared" ref="F31" si="28">$D30*F30</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="2">
-        <f t="shared" ref="G31" si="29">$D30*G30</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" ref="H31" si="30">$D30*H30</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="2">
-        <f t="shared" ref="I31" si="31">$D30*I30</f>
+      <c r="E31" s="12">
+        <v>4</v>
+      </c>
+      <c r="F31" s="12">
+        <v>1</v>
+      </c>
+      <c r="G31" s="12">
+        <v>5</v>
+      </c>
+      <c r="H31" s="12">
+        <v>4</v>
+      </c>
+      <c r="I31" s="13">
+        <f>$D30*I30</f>
         <v>0</v>
       </c>
     </row>
@@ -1039,33 +1131,29 @@
         <v>Output Current</v>
       </c>
       <c r="D32" s="9"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C33" s="8"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="2">
-        <f>$D32*E32</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="2">
-        <f t="shared" ref="F33" si="32">$D32*F32</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="2">
-        <f t="shared" ref="G33" si="33">$D32*G32</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="2">
-        <f t="shared" ref="H33" si="34">$D32*H32</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="2">
-        <f t="shared" ref="I33" si="35">$D32*I32</f>
+      <c r="E33" s="12">
+        <v>5</v>
+      </c>
+      <c r="F33" s="12">
+        <v>3</v>
+      </c>
+      <c r="G33" s="12">
+        <v>4</v>
+      </c>
+      <c r="H33" s="12">
+        <v>5</v>
+      </c>
+      <c r="I33" s="13">
+        <f>$D32*I32</f>
         <v>0</v>
       </c>
     </row>
@@ -1075,33 +1163,29 @@
         <v>Cost</v>
       </c>
       <c r="D34" s="9"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C35" s="8"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="2">
-        <f>$D34*E34</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="2">
-        <f t="shared" ref="F35:I37" si="36">$D34*F34</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="2">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="2">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="2">
-        <f t="shared" si="36"/>
+      <c r="E35" s="12">
+        <v>4</v>
+      </c>
+      <c r="F35" s="12">
+        <v>4</v>
+      </c>
+      <c r="G35" s="12">
+        <v>2</v>
+      </c>
+      <c r="H35" s="12">
+        <v>4</v>
+      </c>
+      <c r="I35" s="13">
+        <f>$D34*I34</f>
         <v>0</v>
       </c>
     </row>
@@ -1111,33 +1195,29 @@
         <v>External Parts Required</v>
       </c>
       <c r="D36" s="9"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C37" s="8"/>
       <c r="D37" s="10"/>
-      <c r="E37" s="2">
-        <f>$D36*E36</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="2">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="2">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="2">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="2">
-        <f t="shared" si="36"/>
+      <c r="E37" s="12">
+        <v>4</v>
+      </c>
+      <c r="F37" s="12">
+        <v>4</v>
+      </c>
+      <c r="G37" s="12">
+        <v>3</v>
+      </c>
+      <c r="H37" s="12">
+        <v>4</v>
+      </c>
+      <c r="I37" s="13">
+        <f>$D36*I36</f>
         <v>0</v>
       </c>
     </row>
@@ -1147,64 +1227,60 @@
         <v>Ripple Voltage/Noise</v>
       </c>
       <c r="D38" s="9"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C39" s="8"/>
       <c r="D39" s="10"/>
-      <c r="E39" s="2">
-        <f>$D38*E38</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="2">
-        <f>$D38*F38</f>
-        <v>0</v>
-      </c>
-      <c r="G39" s="2">
-        <f>$D38*G38</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="2">
-        <f>$D38*H38</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="2">
+      <c r="E39" s="12">
+        <v>4</v>
+      </c>
+      <c r="F39" s="12">
+        <v>4</v>
+      </c>
+      <c r="G39" s="12">
+        <v>2</v>
+      </c>
+      <c r="H39" s="12">
+        <v>4</v>
+      </c>
+      <c r="I39" s="13">
         <f>$D38*I38</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.35">
       <c r="D40" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E40" s="3">
         <f>SUM(E27,E29,E31,E33,E39,E37,E35)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" ref="F40" si="37">SUM(F27,F29,F31,F33,F39,F37,F35)</f>
-        <v>0</v>
+        <f t="shared" ref="F40" si="20">SUM(F27,F29,F31,F33,F39,F37,F35)</f>
+        <v>23</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" ref="G40" si="38">SUM(G27,G29,G31,G33,G39,G37,G35)</f>
-        <v>0</v>
+        <f t="shared" ref="G40" si="21">SUM(G27,G29,G31,G33,G39,G37,G35)</f>
+        <v>25</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" ref="H40" si="39">SUM(H27,H29,H31,H33,H39,H37,H35)</f>
-        <v>0</v>
+        <f t="shared" ref="H40" si="22">SUM(H27,H29,H31,H33,H39,H37,H35)</f>
+        <v>28</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" ref="I40" si="40">SUM(I27,I29,I31,I33,I39,I37,I35)</f>
+        <f t="shared" ref="I40" si="23">SUM(I27,I29,I31,I33,I39,I37,I35)</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="3:9" ht="58" x14ac:dyDescent="0.35">
@@ -1228,7 +1304,7 @@
       </c>
       <c r="H43" s="6" t="str">
         <f>H25</f>
-        <v>OPTION D</v>
+        <v>TPSM863252 -3V to 17V input voltage, 3.3V, 3A output synchronous buck module in QFN package</v>
       </c>
       <c r="I43" s="6" t="str">
         <f>I25</f>
@@ -1241,33 +1317,29 @@
         <v>Efficiency</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C45" s="8"/>
       <c r="D45" s="10"/>
-      <c r="E45" s="2">
-        <f>$D44*E44</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="2">
-        <f t="shared" ref="F45" si="41">$D44*F44</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="2">
-        <f t="shared" ref="G45" si="42">$D44*G44</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="2">
-        <f t="shared" ref="H45" si="43">$D44*H44</f>
-        <v>0</v>
-      </c>
-      <c r="I45" s="2">
-        <f t="shared" ref="I45" si="44">$D44*I44</f>
+      <c r="E45" s="12">
+        <v>3</v>
+      </c>
+      <c r="F45" s="12">
+        <v>3</v>
+      </c>
+      <c r="G45" s="12">
+        <v>4</v>
+      </c>
+      <c r="H45" s="12">
+        <v>5</v>
+      </c>
+      <c r="I45" s="13">
+        <f>$D44*I44</f>
         <v>0</v>
       </c>
     </row>
@@ -1277,33 +1349,29 @@
         <v>Solderability</v>
       </c>
       <c r="D46" s="9"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C47" s="8"/>
       <c r="D47" s="10"/>
-      <c r="E47" s="2">
-        <f>$D46*E46</f>
-        <v>0</v>
-      </c>
-      <c r="F47" s="2">
-        <f t="shared" ref="F47" si="45">$D46*F46</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="2">
-        <f t="shared" ref="G47" si="46">$D46*G46</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="2">
-        <f t="shared" ref="H47" si="47">$D46*H46</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="2">
-        <f t="shared" ref="I47" si="48">$D46*I46</f>
+      <c r="E47" s="13">
+        <v>3</v>
+      </c>
+      <c r="F47" s="13">
+        <v>4</v>
+      </c>
+      <c r="G47" s="13">
+        <v>5</v>
+      </c>
+      <c r="H47" s="12">
+        <v>3</v>
+      </c>
+      <c r="I47" s="13">
+        <f>$D46*I46</f>
         <v>0</v>
       </c>
     </row>
@@ -1313,33 +1381,29 @@
         <v>Input Voltage Range</v>
       </c>
       <c r="D48" s="9"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C49" s="8"/>
       <c r="D49" s="10"/>
-      <c r="E49" s="2">
-        <f>$D48*E48</f>
-        <v>0</v>
-      </c>
-      <c r="F49" s="2">
-        <f t="shared" ref="F49" si="49">$D48*F48</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="2">
-        <f t="shared" ref="G49" si="50">$D48*G48</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="2">
-        <f t="shared" ref="H49" si="51">$D48*H48</f>
-        <v>0</v>
-      </c>
-      <c r="I49" s="2">
-        <f t="shared" ref="I49" si="52">$D48*I48</f>
+      <c r="E49" s="13">
+        <v>5</v>
+      </c>
+      <c r="F49" s="13">
+        <v>2</v>
+      </c>
+      <c r="G49" s="13">
+        <v>5</v>
+      </c>
+      <c r="H49" s="12">
+        <v>5</v>
+      </c>
+      <c r="I49" s="13">
+        <f>$D48*I48</f>
         <v>0</v>
       </c>
     </row>
@@ -1349,33 +1413,29 @@
         <v>Output Current</v>
       </c>
       <c r="D50" s="9"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C51" s="8"/>
       <c r="D51" s="10"/>
-      <c r="E51" s="2">
-        <f>$D50*E50</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="2">
-        <f t="shared" ref="F51" si="53">$D50*F50</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="2">
-        <f t="shared" ref="G51" si="54">$D50*G50</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="2">
-        <f t="shared" ref="H51" si="55">$D50*H50</f>
-        <v>0</v>
-      </c>
-      <c r="I51" s="2">
-        <f t="shared" ref="I51" si="56">$D50*I50</f>
+      <c r="E51" s="13">
+        <v>5</v>
+      </c>
+      <c r="F51" s="12">
+        <v>3</v>
+      </c>
+      <c r="G51" s="13">
+        <v>4</v>
+      </c>
+      <c r="H51" s="12">
+        <v>5</v>
+      </c>
+      <c r="I51" s="13">
+        <f>$D50*I50</f>
         <v>0</v>
       </c>
     </row>
@@ -1385,33 +1445,29 @@
         <v>Cost</v>
       </c>
       <c r="D52" s="9"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C53" s="8"/>
       <c r="D53" s="10"/>
-      <c r="E53" s="2">
-        <f>$D52*E52</f>
-        <v>0</v>
-      </c>
-      <c r="F53" s="2">
-        <f t="shared" ref="F53:I55" si="57">$D52*F52</f>
-        <v>0</v>
-      </c>
-      <c r="G53" s="2">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="2">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="2">
-        <f t="shared" si="57"/>
+      <c r="E53" s="13">
+        <v>5</v>
+      </c>
+      <c r="F53" s="13">
+        <v>5</v>
+      </c>
+      <c r="G53" s="13">
+        <v>2</v>
+      </c>
+      <c r="H53" s="12">
+        <v>5</v>
+      </c>
+      <c r="I53" s="13">
+        <f>$D52*I52</f>
         <v>0</v>
       </c>
     </row>
@@ -1421,33 +1477,29 @@
         <v>External Parts Required</v>
       </c>
       <c r="D54" s="9"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C55" s="8"/>
       <c r="D55" s="10"/>
-      <c r="E55" s="2">
-        <f>$D54*E54</f>
-        <v>0</v>
-      </c>
-      <c r="F55" s="2">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="2">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="H55" s="2">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="2">
-        <f t="shared" si="57"/>
+      <c r="E55" s="13">
+        <v>5</v>
+      </c>
+      <c r="F55" s="13">
+        <v>2</v>
+      </c>
+      <c r="G55" s="13">
+        <v>5</v>
+      </c>
+      <c r="H55" s="12">
+        <v>2</v>
+      </c>
+      <c r="I55" s="13">
+        <f>$D54*I54</f>
         <v>0</v>
       </c>
     </row>
@@ -1457,64 +1509,60 @@
         <v>Ripple Voltage/Noise</v>
       </c>
       <c r="D56" s="9"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C57" s="8"/>
       <c r="D57" s="10"/>
-      <c r="E57" s="2">
-        <f>$D56*E56</f>
-        <v>0</v>
-      </c>
-      <c r="F57" s="2">
-        <f t="shared" ref="F57" si="58">$D56*F56</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="2">
-        <f t="shared" ref="G57" si="59">$D56*G56</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="2">
-        <f t="shared" ref="H57" si="60">$D56*H56</f>
-        <v>0</v>
-      </c>
-      <c r="I57" s="2">
-        <f t="shared" ref="I57" si="61">$D56*I56</f>
+      <c r="E57" s="13">
+        <v>4</v>
+      </c>
+      <c r="F57" s="13">
+        <v>5</v>
+      </c>
+      <c r="G57" s="13">
+        <v>2</v>
+      </c>
+      <c r="H57" s="12">
+        <v>4</v>
+      </c>
+      <c r="I57" s="13">
+        <f>$D56*I56</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.35">
       <c r="D58" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E58" s="3">
         <f>SUM(E45,E47,E49,E51,E57,E55,E53)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F58" s="3">
-        <f t="shared" ref="F58:I58" si="62">SUM(F45,F47,F49,F51,F57,F55,F53)</f>
-        <v>0</v>
+        <f t="shared" ref="F58:I58" si="24">SUM(F45,F47,F49,F51,F57,F55,F53)</f>
+        <v>24</v>
       </c>
       <c r="G58" s="3">
-        <f t="shared" si="62"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>27</v>
       </c>
       <c r="H58" s="3">
-        <f t="shared" si="62"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>29</v>
       </c>
       <c r="I58" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="3:9" ht="58" x14ac:dyDescent="0.35">
@@ -1529,16 +1577,16 @@
         <v>TPSM863253 -3V to 17V input voltage, 3.3V, 3A output synchronous buck module in QFN package</v>
       </c>
       <c r="F61" s="6" t="str">
-        <f t="shared" ref="F61:H61" si="63">F43</f>
+        <f t="shared" ref="F61:H61" si="25">F43</f>
         <v>TPS631000 1.5-A Output Current, High Power Density Buck-Boost Converter</v>
       </c>
       <c r="G61" s="6" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="25"/>
         <v>R-78K-2.0(L) series - 2Amp / SIP3 Single Output</v>
       </c>
       <c r="H61" s="6" t="str">
-        <f t="shared" si="63"/>
-        <v>OPTION D</v>
+        <f t="shared" si="25"/>
+        <v>TPSM863252 -3V to 17V input voltage, 3.3V, 3A output synchronous buck module in QFN package</v>
       </c>
       <c r="I61" s="6" t="str">
         <f>I43</f>
@@ -1550,28 +1598,28 @@
         <f>C44</f>
         <v>Efficiency</v>
       </c>
-      <c r="D62" s="9" t="e">
+      <c r="D62" s="9">
         <f>AVERAGE(D8,D26,D44)</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
       <c r="E62" s="1">
-        <f>SUM(E8,E26,E44)</f>
-        <v>0</v>
+        <f t="shared" ref="E62:I69" si="26">SUM(E8,E26,E44)</f>
+        <v>2</v>
       </c>
       <c r="F62" s="1">
-        <f>SUM(F8,F26,F44)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>5</v>
       </c>
       <c r="G62" s="1">
-        <f>SUM(G8,G26,G44)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>2</v>
       </c>
       <c r="H62" s="1">
-        <f>SUM(H8,H26,H44)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>4</v>
       </c>
       <c r="I62" s="1">
-        <f>SUM(I8,I26,I44)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -1579,53 +1627,53 @@
       <c r="C63" s="8"/>
       <c r="D63" s="10"/>
       <c r="E63" s="2">
-        <f>SUM(E9,E27,E45)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>16</v>
       </c>
       <c r="F63" s="2">
-        <f>SUM(F9,F27,F45)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>31</v>
       </c>
       <c r="G63" s="2">
-        <f>SUM(G9,G27,G45)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>18</v>
       </c>
       <c r="H63" s="2">
-        <f>SUM(H9,H27,H45)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>29</v>
       </c>
       <c r="I63" s="2">
-        <f>SUM(I9,I27,I45)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C64" s="7" t="str">
-        <f t="shared" ref="C64" si="64">C46</f>
+        <f t="shared" ref="C64" si="27">C46</f>
         <v>Solderability</v>
       </c>
-      <c r="D64" s="9" t="e">
-        <f t="shared" ref="D64" si="65">AVERAGE(D10,D28,D46)</f>
-        <v>#DIV/0!</v>
+      <c r="D64" s="9">
+        <f t="shared" ref="D64" si="28">AVERAGE(D10,D28,D46)</f>
+        <v>1</v>
       </c>
       <c r="E64" s="1">
-        <f>SUM(E10,E28,E46)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="F64" s="1">
-        <f>SUM(F10,F28,F46)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>5</v>
       </c>
       <c r="G64" s="1">
-        <f>SUM(G10,G28,G46)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>5</v>
       </c>
       <c r="H64" s="1">
-        <f>SUM(H10,H28,H46)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="I64" s="1">
-        <f>SUM(I10,I28,I46)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -1633,53 +1681,53 @@
       <c r="C65" s="8"/>
       <c r="D65" s="10"/>
       <c r="E65" s="2">
-        <f>SUM(E11,E29,E47)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>7</v>
       </c>
       <c r="F65" s="2">
-        <f>SUM(F11,F29,F47)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>13</v>
       </c>
       <c r="G65" s="2">
-        <f>SUM(G11,G29,G47)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>15</v>
       </c>
       <c r="H65" s="2">
-        <f>SUM(H11,H29,H47)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>7</v>
       </c>
       <c r="I65" s="2">
-        <f>SUM(I11,I29,I47)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C66" s="7" t="str">
-        <f t="shared" ref="C66" si="66">C48</f>
+        <f t="shared" ref="C66" si="29">C48</f>
         <v>Input Voltage Range</v>
       </c>
-      <c r="D66" s="9" t="e">
-        <f t="shared" ref="D66" si="67">AVERAGE(D12,D30,D48)</f>
-        <v>#DIV/0!</v>
+      <c r="D66" s="9">
+        <f t="shared" ref="D66" si="30">AVERAGE(D12,D30,D48)</f>
+        <v>3</v>
       </c>
       <c r="E66" s="1">
-        <f>SUM(E12,E30,E48)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>4</v>
       </c>
       <c r="F66" s="1">
-        <f>SUM(F12,F30,F48)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>2</v>
       </c>
       <c r="G66" s="1">
-        <f>SUM(G12,G30,G48)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>5</v>
       </c>
       <c r="H66" s="1">
-        <f>SUM(H12,H30,H48)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>4</v>
       </c>
       <c r="I66" s="1">
-        <f>SUM(I12,I30,I48)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -1687,53 +1735,53 @@
       <c r="C67" s="8"/>
       <c r="D67" s="10"/>
       <c r="E67" s="2">
-        <f>SUM(E13,E31,E49)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>21</v>
       </c>
       <c r="F67" s="2">
-        <f>SUM(F13,F31,F49)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>9</v>
       </c>
       <c r="G67" s="2">
-        <f>SUM(G13,G31,G49)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>25</v>
       </c>
       <c r="H67" s="2">
-        <f>SUM(H13,H31,H49)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>21</v>
       </c>
       <c r="I67" s="2">
-        <f>SUM(I13,I31,I49)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C68" s="7" t="str">
-        <f t="shared" ref="C68" si="68">C50</f>
+        <f t="shared" ref="C68" si="31">C50</f>
         <v>Output Current</v>
       </c>
-      <c r="D68" s="9" t="e">
-        <f t="shared" ref="D68" si="69">AVERAGE(D14,D32,D50)</f>
-        <v>#DIV/0!</v>
+      <c r="D68" s="9">
+        <f t="shared" ref="D68" si="32">AVERAGE(D14,D32,D50)</f>
+        <v>4</v>
       </c>
       <c r="E68" s="1">
-        <f>SUM(E14,E32,E50)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>5</v>
       </c>
       <c r="F68" s="1">
-        <f>SUM(F14,F32,F50)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>4</v>
       </c>
       <c r="G68" s="1">
-        <f>SUM(G14,G32,G50)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>4</v>
       </c>
       <c r="H68" s="1">
-        <f>SUM(H14,H32,H50)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>5</v>
       </c>
       <c r="I68" s="1">
-        <f>SUM(I14,I32,I50)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -1741,23 +1789,23 @@
       <c r="C69" s="8"/>
       <c r="D69" s="10"/>
       <c r="E69" s="2">
-        <f>SUM(E15,E33,E51)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>30</v>
       </c>
       <c r="F69" s="2">
-        <f>SUM(F15,F33,F51)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>22</v>
       </c>
       <c r="G69" s="2">
-        <f>SUM(G15,G33,G51)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>24</v>
       </c>
       <c r="H69" s="2">
-        <f>SUM(H15,H33,H51)</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>30</v>
       </c>
       <c r="I69" s="2">
-        <f>SUM(I15,I33,I51)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -1766,28 +1814,28 @@
         <f>C52</f>
         <v>Cost</v>
       </c>
-      <c r="D70" s="9" t="e">
-        <f t="shared" ref="D70" si="70">AVERAGE(D16,D34,D52)</f>
-        <v>#DIV/0!</v>
+      <c r="D70" s="9">
+        <f t="shared" ref="D70" si="33">AVERAGE(D16,D34,D52)</f>
+        <v>2</v>
       </c>
       <c r="E70" s="1">
-        <f>SUM(E16,E34,E52)</f>
-        <v>0</v>
+        <f t="shared" ref="E70:E75" si="34">SUM(E16,E34,E52)</f>
+        <v>3</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" ref="F70:I70" si="71">SUM(F16,F34,F52)</f>
-        <v>0</v>
+        <f t="shared" ref="F70:I70" si="35">SUM(F16,F34,F52)</f>
+        <v>3</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="71"/>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>3</v>
       </c>
       <c r="H70" s="1">
-        <f t="shared" si="71"/>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>3</v>
       </c>
       <c r="I70" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -1795,20 +1843,20 @@
       <c r="C71" s="8"/>
       <c r="D71" s="10"/>
       <c r="E71" s="2">
-        <f>SUM(E17,E35,E53)</f>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>15</v>
       </c>
       <c r="F71" s="2">
-        <f t="shared" ref="F71:H71" si="72">SUM(F17,F35,F53)</f>
-        <v>0</v>
+        <f t="shared" ref="F71:H71" si="36">SUM(F17,F35,F53)</f>
+        <v>15</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="72"/>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>10</v>
       </c>
       <c r="H71" s="2">
-        <f t="shared" si="72"/>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>15</v>
       </c>
       <c r="I71" s="2">
         <f>SUM(I17,I35,I53)</f>
@@ -1820,28 +1868,28 @@
         <f>C54</f>
         <v>External Parts Required</v>
       </c>
-      <c r="D72" s="9" t="e">
-        <f t="shared" ref="D72" si="73">AVERAGE(D18,D36,D54)</f>
-        <v>#DIV/0!</v>
+      <c r="D72" s="9">
+        <f t="shared" ref="D72" si="37">AVERAGE(D18,D36,D54)</f>
+        <v>1</v>
       </c>
       <c r="E72" s="1">
-        <f>SUM(E18,E36,E54)</f>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>2</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" ref="F72:I72" si="74">SUM(F18,F36,F54)</f>
-        <v>0</v>
+        <f t="shared" ref="F72:I72" si="38">SUM(F18,F36,F54)</f>
+        <v>4</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>5</v>
       </c>
       <c r="H72" s="1">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>2</v>
       </c>
       <c r="I72" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -1849,23 +1897,23 @@
       <c r="C73" s="8"/>
       <c r="D73" s="10"/>
       <c r="E73" s="2">
-        <f>SUM(E19,E37,E55)</f>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>11</v>
       </c>
       <c r="F73" s="2">
-        <f t="shared" ref="F73:I73" si="75">SUM(F19,F37,F55)</f>
-        <v>0</v>
+        <f t="shared" ref="F73:I73" si="39">SUM(F19,F37,F55)</f>
+        <v>10</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" si="75"/>
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>13</v>
       </c>
       <c r="H73" s="2">
-        <f t="shared" si="75"/>
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>8</v>
       </c>
       <c r="I73" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -1874,28 +1922,28 @@
         <f>C56</f>
         <v>Ripple Voltage/Noise</v>
       </c>
-      <c r="D74" s="9" t="e">
-        <f t="shared" ref="D74" si="76">AVERAGE(D20,D38,D56)</f>
-        <v>#DIV/0!</v>
+      <c r="D74" s="9">
+        <f t="shared" ref="D74" si="40">AVERAGE(D20,D38,D56)</f>
+        <v>3</v>
       </c>
       <c r="E74" s="1">
-        <f>SUM(E20,E38,E56)</f>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>4</v>
       </c>
       <c r="F74" s="1">
-        <f>SUM(F20,F38,F56)</f>
-        <v>0</v>
+        <f t="shared" ref="F74:I75" si="41">SUM(F20,F38,F56)</f>
+        <v>5</v>
       </c>
       <c r="G74" s="1">
-        <f>SUM(G20,G38,G56)</f>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>1</v>
       </c>
       <c r="H74" s="1">
-        <f>SUM(H20,H38,H56)</f>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>3</v>
       </c>
       <c r="I74" s="1">
-        <f>SUM(I20,I38,I56)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -1903,63 +1951,79 @@
       <c r="C75" s="8"/>
       <c r="D75" s="10"/>
       <c r="E75" s="2">
-        <f>SUM(E21,E39,E57)</f>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>20</v>
       </c>
       <c r="F75" s="2">
-        <f>SUM(F21,F39,F57)</f>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>24</v>
       </c>
       <c r="G75" s="2">
-        <f>SUM(G21,G39,G57)</f>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>7</v>
       </c>
       <c r="H75" s="2">
-        <f>SUM(H21,H39,H57)</f>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>17</v>
       </c>
       <c r="I75" s="2">
-        <f>SUM(I21,I39,I57)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.35">
       <c r="D76" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E76" s="4">
         <f>SUM(E63,E65,E67,E69,E75,E73,E71)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F76" s="4">
-        <f t="shared" ref="F76:I76" si="77">SUM(F63,F65,F67,F69,F75,F73,F71)</f>
-        <v>0</v>
+        <f t="shared" ref="F76:I76" si="42">SUM(F63,F65,F67,F69,F75,F73,F71)</f>
+        <v>124</v>
       </c>
       <c r="G76" s="4">
-        <f t="shared" si="77"/>
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>112</v>
       </c>
       <c r="H76" s="4">
-        <f t="shared" si="77"/>
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>127</v>
       </c>
       <c r="I76" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="D68:D69"/>
     <mergeCell ref="C74:C75"/>
@@ -1974,41 +2038,35 @@
     <mergeCell ref="D70:D71"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="D72:D73"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D20:D21"/>
   </mergeCells>
   <conditionalFormatting sqref="E62:I69 E74:I75">
     <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF7030A0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70:I70">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2027,8 +2085,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73:I73">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="E72:I72">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2037,18 +2095,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70:I70">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFF00"/>
-        <color rgb="FF7030A0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72:I72">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="E73:I73">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
